--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectAll.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectAll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="setUp" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="LTEQ" sheetId="5" r:id="rId4"/>
     <sheet name="GT" sheetId="6" r:id="rId5"/>
     <sheet name="LT" sheetId="7" r:id="rId6"/>
+    <sheet name="Rules" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="158">
   <si>
     <t xml:space="preserve">Datatype car </t>
   </si>
@@ -408,19 +409,113 @@
   </si>
   <si>
     <t>Test selectAllWherePredicate_LT</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult calc(Integer i)</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>= i</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>= i / 3</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult case1(Integer[] i)</t>
+  </si>
+  <si>
+    <t>SumS</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>SumF</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>= calc(i)</t>
+  </si>
+  <si>
+    <t>= sum ($Calc$B($Calc))</t>
+  </si>
+  <si>
+    <t>= flatten ($Calc$B($Calc))</t>
+  </si>
+  <si>
+    <t>= sum ($Flat)</t>
+  </si>
+  <si>
+    <t>= $SumS == $SumF</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>= $A == $B</t>
+  </si>
+  <si>
+    <t>=allTrue($A, $B, $SumS, $SumF)</t>
+  </si>
+  <si>
+    <t>Test case1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>_res_.$E$Q</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>= $A[ select all having $Calc$A &gt; 0 ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -523,10 +618,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,7 +632,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,21 +655,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,7 +932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -854,10 +957,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -907,11 +1010,11 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1206,23 +1309,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1404,25 +1507,25 @@
       <c r="W7" s="5"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="H11" s="12" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
@@ -1807,25 +1910,25 @@
       <c r="T21" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="H26" s="12" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="H26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2188,25 +2291,25 @@
       <c r="R36" s="3"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="H40" s="12" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="H40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2613,27 +2716,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3030,25 +3133,25 @@
       <c r="T12" s="1"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="H16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -3238,27 +3341,27 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="H26" s="10" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="H26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -3653,27 +3756,27 @@
       <c r="T36" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="H40" s="10" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="H40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -4116,31 +4219,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4599,29 +4702,29 @@
       <c r="X12" s="1"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="H16" s="12" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
@@ -4874,31 +4977,31 @@
       <c r="X21" s="5"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="H25" s="10" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -5357,31 +5460,31 @@
       <c r="X35" s="1"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="H39" s="10" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="H39" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -5841,14 +5944,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H16:V16"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="H25:X25"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="H39:X39"/>
     <mergeCell ref="H2:X2"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H16:V16"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="H25:X25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5884,27 +5987,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -6277,19 +6380,19 @@
       <c r="T12" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="H16" s="15" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -6310,19 +6413,19 @@
       <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M17" s="5"/>
@@ -6443,27 +6546,27 @@
       <c r="M21" s="6"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="H25" s="9" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -6836,27 +6939,27 @@
       <c r="T35" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="H39" s="9" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="H39" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -7247,7 +7350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -7277,23 +7380,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -7702,23 +7805,23 @@
       <c r="X12" s="5"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="H16" s="14" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -7923,23 +8026,23 @@
       <c r="V21" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="H26" s="10" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="H26" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -8260,23 +8363,23 @@
       <c r="P36" s="3"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="H40" s="10" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="H40" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -8609,4 +8712,202 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.5703125" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="12" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectAll.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectAll.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61753B9B-0E9B-4F41-BD62-9E6BFC6CBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="12480" yWindow="2960" windowWidth="21920" windowHeight="15900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUp" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="154">
   <si>
     <t xml:space="preserve">Datatype car </t>
   </si>
@@ -120,9 +121,6 @@
     <t>#3</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>#4</t>
   </si>
   <si>
@@ -132,9 +130,6 @@
     <t>9,9,9,9</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>#6</t>
   </si>
   <si>
@@ -384,9 +379,6 @@
     <t>Test selectAll_GT</t>
   </si>
   <si>
-    <t>9,</t>
-  </si>
-  <si>
     <t>Test setSecondToNullAndSelectAll_GT</t>
   </si>
   <si>
@@ -397,9 +389,6 @@
   </si>
   <si>
     <t>Test selectAll_LT</t>
-  </si>
-  <si>
-    <t>5,</t>
   </si>
   <si>
     <t>Test setSecondToNullAndSelectAll_LT</t>
@@ -504,7 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,17 +611,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -655,14 +638,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,37 +915,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="68" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -970,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,45 +961,45 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,16 +1010,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,16 +1030,16 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -1067,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -1078,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -1089,16 +1072,16 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1107,16 +1090,16 @@
       </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -1127,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>6</v>
       </c>
@@ -1138,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -1149,16 +1132,16 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -1169,16 +1152,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>9</v>
       </c>
@@ -1189,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>10</v>
       </c>
@@ -1198,76 +1181,76 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="1" t="s">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1280,54 +1263,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -1347,28 +1330,28 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -1387,12 +1370,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="3"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1400,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -1412,124 +1392,113 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="2">
-        <v>8</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="4">
-        <v>8</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="P6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -1549,36 +1518,34 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -1599,11 +1566,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1611,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -1623,85 +1588,81 @@
         <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>77</v>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="2">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="2">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="2">
-        <v>8</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="1">
+        <v>8</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="4">
-        <v>8</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1711,7 +1672,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
@@ -1724,27 +1685,21 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>8</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1">
         <v>8</v>
       </c>
@@ -1755,13 +1710,11 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1771,7 +1724,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
@@ -1786,65 +1739,61 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1">
         <v>8</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="2">
-        <v>8</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="1">
+        <v>8</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="2">
-        <v>8</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="N19" s="1">
+        <v>8</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="P19" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="2">
-        <v>8</v>
-      </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -1853,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>8</v>
@@ -1872,25 +1821,23 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="1"/>
@@ -1905,32 +1852,30 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1883,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -1950,34 +1895,34 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="R27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -1998,9 +1943,9 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>26</v>
@@ -2020,81 +1965,81 @@
         <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="R29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>77</v>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="2">
-        <v>8</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1">
+        <v>8</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="2">
-        <v>8</v>
-      </c>
-      <c r="O30" s="2" t="s">
+      <c r="N30" s="1">
+        <v>8</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="P30" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2049,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
@@ -2117,25 +2062,21 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>8</v>
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1">
         <v>8</v>
       </c>
@@ -2146,11 +2087,11 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -2160,7 +2101,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -2175,61 +2116,61 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="2">
-        <v>8</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="2">
-        <v>8</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="N34" s="1">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="2" t="s">
+      <c r="P34" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R34" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
@@ -2238,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>8</v>
@@ -2257,23 +2198,23 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>
@@ -2288,30 +2229,30 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="H40" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="2"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="H40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2260,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -2331,34 +2272,34 @@
         <v>21</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="R41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -2379,9 +2320,9 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2389,7 +2330,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>26</v>
@@ -2401,81 +2342,81 @@
         <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="R43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="2">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>77</v>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="2">
-        <v>8</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="1">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="2">
-        <v>8</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="1">
+        <v>8</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="2">
-        <v>8</v>
-      </c>
-      <c r="O44" s="2" t="s">
+      <c r="N44" s="1">
+        <v>8</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="2" t="s">
+      <c r="P44" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R44" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
@@ -2485,7 +2426,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
@@ -2498,25 +2439,21 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>8</v>
       </c>
       <c r="E46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1">
         <v>8</v>
       </c>
@@ -2527,11 +2464,11 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -2541,7 +2478,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I47" s="1">
         <v>4</v>
@@ -2556,61 +2493,61 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J48" s="1">
         <v>8</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="2">
-        <v>8</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="1">
+        <v>8</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="2">
-        <v>8</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="N48" s="1">
+        <v>8</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P48" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -2619,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>8</v>
@@ -2638,23 +2575,23 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="1"/>
@@ -2669,7 +2606,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2687,58 +2624,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:R21"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2683,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -2758,41 +2695,41 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -2817,7 +2754,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2825,7 +2762,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -2837,94 +2774,94 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="2">
-        <v>8</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="2">
-        <v>8</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,7 +2871,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -2951,23 +2888,19 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
@@ -2982,9 +2915,9 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -2994,7 +2927,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -3013,61 +2946,61 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>9</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>9</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>9</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -3076,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -3099,21 +3032,21 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
@@ -3132,28 +3065,28 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +3094,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -3173,34 +3106,34 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -3219,11 +3152,11 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3164,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
@@ -3243,71 +3176,71 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="R19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="2">
-        <v>8</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="2">
-        <v>8</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="N20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>8</v>
       </c>
       <c r="Q20" t="s">
@@ -3317,53 +3250,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -3371,7 +3304,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -3383,40 +3316,40 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -3441,7 +3374,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -3449,7 +3382,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>26</v>
@@ -3461,93 +3394,93 @@
         <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>46</v>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="2">
-        <v>8</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1">
+        <v>8</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="2">
-        <v>8</v>
-      </c>
-      <c r="O30" s="2" t="s">
+      <c r="N30" s="1">
+        <v>8</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="P30" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="2">
-        <v>8</v>
-      </c>
-      <c r="S30" s="2" t="s">
+      <c r="R30" s="1">
+        <v>8</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3557,7 +3490,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
@@ -3574,23 +3507,19 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>8</v>
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1">
         <v>8</v>
       </c>
@@ -3605,9 +3534,9 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -3617,7 +3546,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -3636,61 +3565,61 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="2">
-        <v>8</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="2">
-        <v>8</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="N34" s="1">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="2" t="s">
+      <c r="P34" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>8</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
@@ -3699,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>8</v>
@@ -3722,21 +3651,21 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>
@@ -3755,30 +3684,30 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="H40" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="H40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
@@ -3786,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -3798,40 +3727,40 @@
         <v>21</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -3856,7 +3785,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
@@ -3864,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>26</v>
@@ -3876,93 +3805,93 @@
         <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="2">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="2">
-        <v>8</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="1">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="2">
-        <v>8</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="1">
+        <v>8</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="2">
-        <v>8</v>
-      </c>
-      <c r="O44" s="2" t="s">
+      <c r="N44" s="1">
+        <v>8</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="2" t="s">
+      <c r="P44" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R44" s="2">
-        <v>8</v>
-      </c>
-      <c r="S44" s="2" t="s">
+      <c r="R44" s="1">
+        <v>8</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
@@ -3972,7 +3901,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
@@ -3989,23 +3918,19 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>8</v>
       </c>
       <c r="E46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1">
         <v>8</v>
       </c>
@@ -4020,9 +3945,9 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -4032,7 +3957,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I47" s="1">
         <v>4</v>
@@ -4051,61 +3976,61 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J48" s="1">
         <v>8</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="2">
-        <v>8</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="1">
+        <v>8</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="2">
-        <v>8</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="N48" s="1">
+        <v>8</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P48" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="1">
         <v>8</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -4114,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>8</v>
@@ -4137,21 +4062,21 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="1"/>
@@ -4186,66 +4111,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:X49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:V21"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4253,7 +4178,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -4265,52 +4190,52 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="U3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -4339,7 +4264,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4347,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -4359,101 +4284,101 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>95</v>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="2">
-        <v>8</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>5</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -4469,7 +4394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -4479,7 +4404,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -4500,23 +4425,19 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
@@ -4535,9 +4456,9 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -4547,7 +4468,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -4570,50 +4491,50 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>5</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>5</v>
       </c>
       <c r="S10" s="1"/>
@@ -4623,12 +4544,12 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -4637,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -4664,21 +4585,21 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
@@ -4701,34 +4622,32 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -4748,48 +4667,46 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -4814,11 +4731,9 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -4826,7 +4741,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
@@ -4838,91 +4753,89 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="2">
-        <v>8</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="2">
-        <v>8</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="N20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>5</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>6</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -4934,34 +4847,32 @@
       <c r="U20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V20" s="3">
-        <v>8</v>
-      </c>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="V20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="1"/>
@@ -4972,38 +4883,36 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="H25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -5011,7 +4920,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -5023,52 +4932,52 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="R26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="U26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="X26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>23</v>
@@ -5097,7 +5006,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
@@ -5105,7 +5014,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>26</v>
@@ -5117,101 +5026,101 @@
         <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>95</v>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="2">
-        <v>8</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="1">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="2">
-        <v>8</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="L29" s="1">
+        <v>8</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="2">
-        <v>8</v>
-      </c>
-      <c r="O29" s="2" t="s">
+      <c r="N29" s="1">
+        <v>8</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="P29" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>5</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1">
         <v>6</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -5227,7 +5136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5237,7 +5146,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
@@ -5258,23 +5167,19 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>8</v>
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1">
         <v>8</v>
       </c>
@@ -5293,9 +5198,9 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -5305,7 +5210,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -5328,50 +5233,50 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1">
         <v>8</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>5</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>5</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>5</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>5</v>
       </c>
       <c r="S33" s="1"/>
@@ -5381,12 +5286,12 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -5395,10 +5300,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
@@ -5422,21 +5327,21 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="1"/>
@@ -5459,34 +5364,34 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="H39" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="H39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -5494,7 +5399,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>22</v>
@@ -5506,52 +5411,52 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="R40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="T40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="U40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="X40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>23</v>
@@ -5580,7 +5485,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
@@ -5588,7 +5493,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>26</v>
@@ -5600,101 +5505,101 @@
         <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="2">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="2">
-        <v>8</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="1">
+        <v>8</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="2">
-        <v>8</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="L43" s="1">
+        <v>8</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N43" s="2">
-        <v>8</v>
-      </c>
-      <c r="O43" s="2" t="s">
+      <c r="N43" s="1">
+        <v>8</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="2" t="s">
+      <c r="P43" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="1">
         <v>5</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="1">
         <v>6</v>
       </c>
       <c r="U43" s="1" t="s">
@@ -5710,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
@@ -5720,7 +5625,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
@@ -5741,23 +5646,19 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1">
         <v>8</v>
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1">
         <v>8</v>
       </c>
@@ -5776,9 +5677,9 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
@@ -5788,7 +5689,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I46" s="1">
         <v>4</v>
@@ -5811,50 +5712,50 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1">
         <v>8</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>5</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>5</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <v>5</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="1">
         <v>5</v>
       </c>
       <c r="S47" s="1"/>
@@ -5864,12 +5765,12 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -5878,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <v>8</v>
@@ -5905,21 +5806,21 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J49" s="1"/>
@@ -5958,58 +5859,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -6017,7 +5918,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -6029,40 +5930,40 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -6087,7 +5988,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -6095,7 +5996,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -6107,77 +6008,77 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>9</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -6187,7 +6088,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -6204,23 +6105,19 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
@@ -6235,9 +6132,9 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -6247,7 +6144,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -6266,61 +6163,61 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>9</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>9</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>9</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -6329,10 +6226,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -6352,19 +6249,19 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
@@ -6379,28 +6276,22 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -6408,34 +6299,28 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -6450,15 +6335,9 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -6466,7 +6345,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
@@ -6478,97 +6357,84 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
         <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>9</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -6576,7 +6442,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -6588,40 +6454,40 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>23</v>
@@ -6646,7 +6512,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
@@ -6654,7 +6520,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>26</v>
@@ -6666,77 +6532,77 @@
         <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="2">
-        <v>8</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="1">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>9</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6746,7 +6612,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
@@ -6763,23 +6629,19 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>8</v>
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1">
         <v>8</v>
       </c>
@@ -6794,9 +6656,9 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -6806,7 +6668,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -6825,61 +6687,61 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1">
         <v>8</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>9</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>9</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>9</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>9</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -6888,10 +6750,10 @@
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
@@ -6911,19 +6773,19 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="H35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="1"/>
@@ -6938,30 +6800,30 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="H39" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +6831,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>22</v>
@@ -6981,40 +6843,40 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>23</v>
@@ -7039,7 +6901,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
@@ -7047,7 +6909,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>26</v>
@@ -7059,77 +6921,77 @@
         <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="2">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
         <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="2">
-        <v>8</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="1">
+        <v>8</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>9</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
@@ -7139,7 +7001,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
@@ -7156,23 +7018,19 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1">
         <v>8</v>
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1">
         <v>8</v>
       </c>
@@ -7187,9 +7045,9 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
@@ -7199,7 +7057,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I46" s="1">
         <v>4</v>
@@ -7218,61 +7076,61 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D47" s="1">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J47" s="1">
         <v>8</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>9</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>9</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <v>9</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="1">
         <v>9</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -7281,10 +7139,10 @@
         <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="I48" s="1">
+        <v>9</v>
       </c>
       <c r="J48" s="1">
         <v>8</v>
@@ -7304,19 +7162,19 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="H49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J49" s="1"/>
@@ -7347,66 +7205,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="H2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7414,7 +7264,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -7426,36 +7276,28 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -7474,17 +7316,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -7492,7 +7326,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -7504,85 +7338,69 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>6</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>7</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -7592,7 +7410,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -7603,33 +7421,21 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
@@ -7638,19 +7444,11 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -7660,7 +7458,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -7673,71 +7471,55 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -7746,10 +7528,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -7763,29 +7545,21 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
@@ -7794,42 +7568,28 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -7837,7 +7597,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -7849,34 +7609,28 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -7895,15 +7649,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -7911,7 +7659,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
@@ -7923,128 +7671,110 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>93</v>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>5</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>6</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>7</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="3"/>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -8052,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -8064,28 +7794,28 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -8104,9 +7834,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -8114,7 +7844,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>26</v>
@@ -8126,69 +7856,69 @@
         <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>93</v>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>5</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>6</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -8198,7 +7928,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
@@ -8209,25 +7939,21 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>8</v>
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1">
         <v>8</v>
       </c>
@@ -8236,11 +7962,11 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -8250,7 +7976,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -8263,55 +7989,55 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>5</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>5</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
@@ -8320,10 +8046,10 @@
         <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5</v>
       </c>
       <c r="J35" s="1">
         <v>8</v>
@@ -8337,21 +8063,21 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>
@@ -8360,28 +8086,28 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="H40" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="H40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
@@ -8389,7 +8115,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -8401,28 +8127,28 @@
         <v>21</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -8441,9 +8167,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
@@ -8451,7 +8177,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>26</v>
@@ -8463,69 +8189,69 @@
         <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="P43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="2">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>93</v>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="2">
-        <v>8</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="1">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>5</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>6</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
@@ -8535,7 +8261,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
@@ -8546,25 +8272,21 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>8</v>
       </c>
       <c r="E46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1">
         <v>8</v>
       </c>
@@ -8573,11 +8295,11 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -8587,7 +8309,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I47" s="1">
         <v>4</v>
@@ -8600,55 +8322,55 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J48" s="1">
         <v>8</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>5</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>5</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -8657,10 +8379,10 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
       </c>
       <c r="J49" s="1">
         <v>8</v>
@@ -8674,21 +8396,21 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="H50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="1"/>
@@ -8697,7 +8419,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8715,189 +8437,189 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.5703125" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.85546875" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" style="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" style="12" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="12" collapsed="1"/>
+    <col min="1" max="1" width="2.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.54296875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.26953125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.54296875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.26953125" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.1796875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="G8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="13" t="s">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="13" t="s">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="13" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+      <c r="C15" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C17" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>154</v>
+      <c r="C18" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
